--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7082-2024</t>
+          <t>A 3401-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,13 +1038,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>22.7</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1053,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1071,471 +1066,476 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 2644-2026</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>46037.62291666667</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Flikbålmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 20090-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45434</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Hasselmus</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 951-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 951-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Dvärgpipistrell</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 3401-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45318</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>44922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1848,8 +1848,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1886,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45875</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1906,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1943,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1963,7 +1968,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2000,14 +2005,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45875</v>
+        <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2057,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45329</v>
+        <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2076,13 +2081,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45317</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2233,14 +2233,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45429</v>
+        <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2290,14 +2290,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45324</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,8 +2309,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2347,14 +2352,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45392</v>
+        <v>45162</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2367,7 +2372,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2404,14 +2409,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2424,7 +2429,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2461,14 +2466,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45755</v>
+        <v>45318</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2481,7 +2486,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2518,14 +2523,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45336</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2538,7 +2543,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2575,14 +2580,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45324</v>
+        <v>45336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2594,13 +2599,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2637,14 +2637,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,13 +2656,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2699,14 +2694,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45330</v>
+        <v>45429</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,13 +2713,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>18.4</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2761,14 +2751,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2781,7 +2771,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2818,14 +2808,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45318</v>
+        <v>45407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2838,7 +2828,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,14 +2865,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45318</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2895,7 +2885,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2932,14 +2922,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45318</v>
+        <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2951,8 +2941,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2989,14 +2984,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44978</v>
+        <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3009,7 +3004,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3046,14 +3041,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45498.5925</v>
+        <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3065,13 +3060,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3108,14 +3098,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45089</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3128,7 +3118,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3165,14 +3155,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3184,13 +3174,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3227,14 +3212,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45769</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3247,7 +3232,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3284,14 +3269,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46007</v>
+        <v>45318</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3303,13 +3288,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3346,14 +3326,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45818</v>
+        <v>45343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3366,7 +3346,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3403,14 +3383,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45343</v>
+        <v>45838</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3403,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3460,14 +3440,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3479,13 +3459,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3522,14 +3497,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45426</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3522,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3584,14 +3559,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46035</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3579,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3641,14 +3616,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45348</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3636,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3698,14 +3673,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45532</v>
+        <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3717,8 +3692,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3755,14 +3735,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45318</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3755,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3812,14 +3792,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44923</v>
+        <v>45818</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3832,7 +3812,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3869,14 +3849,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45318</v>
+        <v>45700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3889,7 +3869,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3926,14 +3906,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3946,7 +3926,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3983,14 +3963,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45429</v>
+        <v>45875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4003,7 +3983,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4040,14 +4020,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45273</v>
+        <v>45320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4060,7 +4040,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4097,14 +4077,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45162</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4117,7 +4097,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4154,14 +4134,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4174,7 +4154,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4211,14 +4191,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45317</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4231,7 +4211,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4268,14 +4248,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45061</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4288,7 +4268,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4325,14 +4305,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4345,7 +4325,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4382,14 +4362,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45112</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4407,7 +4387,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4444,14 +4424,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45334</v>
+        <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4464,7 +4444,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4501,14 +4481,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4521,7 +4501,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4558,14 +4538,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45092</v>
+        <v>45061</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4578,7 +4558,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4615,14 +4595,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45628</v>
+        <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4635,7 +4615,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4672,14 +4652,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45755</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4692,7 +4672,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4729,14 +4709,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45273</v>
+        <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4749,7 +4729,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4786,14 +4766,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44720</v>
+        <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4806,7 +4786,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4843,14 +4823,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45318</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4863,7 +4843,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4900,14 +4880,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45399</v>
+        <v>46007</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4919,8 +4899,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4957,14 +4942,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45498.5925</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4976,8 +4961,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5014,14 +5004,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45349</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,7 +5024,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5071,14 +5061,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45162</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5091,7 +5081,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5128,14 +5118,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45343</v>
+        <v>45392</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5147,13 +5137,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5190,14 +5175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45320</v>
+        <v>46035</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5195,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5247,14 +5232,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5266,8 +5251,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5304,14 +5294,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45318</v>
+        <v>45348</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5314,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5361,14 +5351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45318</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5418,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44417</v>
+        <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5437,8 +5427,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>11.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5475,14 +5470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45628</v>
+        <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5490,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5532,14 +5527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5547,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5589,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44922</v>
+        <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5608,13 +5603,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5651,14 +5641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5671,7 +5661,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5708,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44876</v>
+        <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45434</v>
+        <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,7 +5775,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5829,7 +5819,7 @@
         <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5879,14 +5869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5899,7 +5889,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5946,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44827</v>
+        <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6003,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6040,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6069,8 +6059,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6107,14 +6102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44845</v>
+        <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6122,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>14</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6164,14 +6159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6183,8 +6178,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>18.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45769</v>
+        <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45769</v>
+        <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6297,8 +6297,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6335,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45392</v>
+        <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6355,7 +6360,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6392,14 +6397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45069</v>
+        <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6411,13 +6416,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>11.4</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6454,14 +6454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45407</v>
+        <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45204</v>
+        <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6587,13 +6587,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6630,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6650,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6687,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6706,13 +6701,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6768,8 +6758,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45838</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6825,8 +6820,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45700</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45343</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45180.5609375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45324</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>45162</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45652.38005787037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45318</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45740.26850694444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45397.50576388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45429</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45898.52972222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45600.44368055555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45831.6150462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45769</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45318</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45838</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>45771.25997685185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45938.55403935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44943.67172453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45180.31387731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45474.39143518519</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45818</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45971.59123842593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45547.60444444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45317</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45993.65428240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45318</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45061</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45555.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>46007</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45498.5925</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44903.69670138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45569.63178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45392</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>46035</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44657.53449074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45348</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45043.60021990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45343</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45180.5609375</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45324</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>45162</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45652.38005787037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45318</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45740.26850694444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45397.50576388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45429</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45898.52972222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45600.44368055555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45831.6150462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45769</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45318</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45838</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>45771.25997685185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45938.55403935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44943.67172453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45180.31387731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45474.39143518519</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>45818</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45971.59123842593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45547.60444444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45317</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45993.65428240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45318</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45061</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45555.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>46007</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45498.5925</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44903.69670138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45569.63178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45392</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>46035</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44657.53449074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45348</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45043.60021990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3401-2024</t>
+          <t>A 7082-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45318</v>
+        <v>45343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,8 +1038,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>22.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1048,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1066,476 +1071,471 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 20090-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hasselmus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 951-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Dvärgpipistrell</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 3401-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 7082-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 20090-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Hasselmus</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 951-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgpipistrell</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44922</v>
+        <v>45329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1891,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45318</v>
+        <v>45324</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,8 +1967,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2005,14 +2010,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45318</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2025,7 +2030,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2062,14 +2067,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,8 +2086,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>18.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2129,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2186,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>44978</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2196,7 +2206,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2233,14 +2243,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44978</v>
+        <v>45498.5925</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,8 +2262,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2290,14 +2305,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45324</v>
+        <v>45343</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,13 +2324,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2352,14 +2362,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45162</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2372,7 +2382,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2409,14 +2419,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2429,7 +2439,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2466,14 +2476,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45318</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2485,8 +2495,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2523,14 +2538,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2542,8 +2557,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2580,14 +2600,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45336</v>
+        <v>45318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2600,7 +2620,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2637,14 +2657,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2657,7 +2677,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2694,14 +2714,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45429</v>
+        <v>44923</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2714,7 +2734,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2751,14 +2771,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2771,7 +2791,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2808,14 +2828,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45407</v>
+        <v>45273</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,14 +2885,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2885,7 +2905,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2922,14 +2942,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45112</v>
+        <v>45875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,13 +2961,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2984,14 +2999,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45273</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3041,14 +3056,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44845</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3076,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3098,14 +3113,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45317</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3133,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3155,14 +3170,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45769</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,8 +3189,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3212,14 +3232,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45769</v>
+        <v>45818</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3252,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3269,14 +3289,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45318</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3309,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3326,14 +3346,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45343</v>
+        <v>45429</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3366,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3383,14 +3403,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45838</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3423,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3440,14 +3460,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45392</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3480,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3497,14 +3517,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45336</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3516,13 +3536,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3559,14 +3574,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45318</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3579,7 +3594,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3616,14 +3631,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3673,14 +3688,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,13 +3707,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>10.6</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3735,14 +3745,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3792,14 +3802,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45818</v>
+        <v>45348</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3812,7 +3822,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3849,14 +3859,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45700</v>
+        <v>45532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3869,7 +3879,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3906,14 +3916,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45875</v>
+        <v>45318</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3926,7 +3936,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3963,14 +3973,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45875</v>
+        <v>45429</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3983,7 +3993,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4020,14 +4030,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45320</v>
+        <v>45162</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4040,7 +4050,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4077,14 +4087,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4097,7 +4107,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4134,14 +4144,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4154,7 +4164,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4191,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45317</v>
+        <v>45061</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4211,7 +4221,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4248,14 +4258,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4278,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4305,14 +4315,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45392</v>
+        <v>45112</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4324,8 +4334,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4362,14 +4377,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4381,13 +4396,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4424,14 +4434,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45318</v>
+        <v>45162</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4444,7 +4454,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4481,14 +4491,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45318</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4500,8 +4510,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4538,14 +4553,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45061</v>
+        <v>45092</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4573,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4595,14 +4610,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44876</v>
+        <v>45628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4630,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4652,14 +4667,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4687,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4709,14 +4724,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45429</v>
+        <v>45273</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4744,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4766,14 +4781,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45273</v>
+        <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4830,7 +4845,7 @@
         <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4902,7 @@
         <v>46007</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4942,14 +4957,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45318</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4961,13 +4976,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5004,14 +5014,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45399</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5024,7 +5034,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5061,14 +5071,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5091,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5118,14 +5128,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45392</v>
+        <v>45349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5148,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5175,14 +5185,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46035</v>
+        <v>45162</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5205,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5232,14 +5242,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>46035</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5251,13 +5261,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5294,14 +5299,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45348</v>
+        <v>45343</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5313,8 +5318,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>6.9</v>
+        <v>10.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5351,14 +5361,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45320</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5381,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5418,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45069</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,13 +5437,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5470,14 +5475,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5490,7 +5495,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5527,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,7 +5552,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5589,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45349</v>
+        <v>44417</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5604,7 +5609,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5641,14 +5646,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44720</v>
+        <v>45628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5661,7 +5666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45755</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5718,7 +5723,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5755,14 +5760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45532</v>
+        <v>44922</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,8 +5779,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5812,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45320</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5832,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5869,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44923</v>
+        <v>44876</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,7 +5899,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5933,7 +5943,7 @@
         <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5983,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45334</v>
+        <v>45320</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6003,7 +6013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6040,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45329</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6059,13 +6069,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6102,14 +6107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44417</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6127,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6159,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,13 +6183,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>18.4</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45089</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45426</v>
+        <v>44845</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6297,13 +6297,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>14</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6335,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45399</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6355,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6397,14 +6392,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6412,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6454,14 +6449,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45092</v>
+        <v>45769</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6469,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6506,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45318</v>
+        <v>45392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6526,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6563,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45162</v>
+        <v>45069</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6587,8 +6582,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45628</v>
+        <v>45407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45628</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6801,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6820,13 +6820,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6858,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6882,8 +6877,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7082-2024</t>
+          <t>A 951-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45343</v>
+        <v>45301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>22.7</v>
+        <v>28.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1068,474 +1068,474 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Dvärgpipistrell</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 3401-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 20090-2024</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45434</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Hasselmus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 951-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgpipistrell</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 3401-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45318</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>18.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1891,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45755</v>
+        <v>45089</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45324</v>
+        <v>45426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2010,14 +2010,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2067,14 +2067,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45330</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2086,13 +2086,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>18.4</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2129,14 +2124,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45089</v>
+        <v>45755</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2144,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2186,14 +2181,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44978</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2201,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2243,14 +2238,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45498.5925</v>
+        <v>44922</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2268,7 +2263,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2305,14 +2300,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45343</v>
+        <v>45092</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2325,7 +2320,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2362,14 +2357,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2419,14 +2414,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45838</v>
+        <v>45318</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2439,7 +2434,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2476,14 +2471,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45318</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,13 +2490,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2538,14 +2528,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45426</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,13 +2547,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2600,14 +2585,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2620,7 +2605,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2657,14 +2642,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45324</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,8 +2661,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2714,14 +2704,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44923</v>
+        <v>45162</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2734,7 +2724,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2771,14 +2761,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45700</v>
+        <v>45162</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2791,7 +2781,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2828,14 +2818,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45273</v>
+        <v>45628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2848,7 +2838,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2885,14 +2875,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45875</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2905,7 +2895,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2942,14 +2932,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45875</v>
+        <v>44978</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2962,7 +2952,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2999,14 +2989,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45628</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3019,7 +3009,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3056,14 +3046,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3076,7 +3066,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3113,14 +3103,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3133,7 +3123,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3170,14 +3160,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3189,13 +3179,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3232,14 +3217,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45818</v>
+        <v>45204</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,8 +3236,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3289,14 +3279,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45336</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3309,7 +3299,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3346,14 +3336,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45429</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3365,8 +3355,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3403,14 +3398,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3423,7 +3418,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3460,14 +3455,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45392</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3480,7 +3475,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3517,14 +3512,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45336</v>
+        <v>45429</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3537,7 +3532,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3574,14 +3569,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45318</v>
+        <v>45407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3594,7 +3589,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3631,14 +3626,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45318</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3651,7 +3646,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3688,14 +3683,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45318</v>
+        <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3707,8 +3702,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45273</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45348</v>
+        <v>44845</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.9</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45532</v>
+        <v>45769</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45318</v>
+        <v>45769</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45429</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45838</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4144,14 +4144,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45343</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4201,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45061</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4220,8 +4220,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4258,14 +4263,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4315,14 +4320,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45112</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4334,13 +4339,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4377,14 +4377,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45334</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4434,14 +4434,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45162</v>
+        <v>45343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4453,8 +4453,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4491,14 +4496,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4510,13 +4515,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4553,14 +4553,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45092</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4610,14 +4610,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45628</v>
+        <v>45875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4667,14 +4667,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45755</v>
+        <v>45875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4724,14 +4724,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45273</v>
+        <v>45818</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4781,14 +4781,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44720</v>
+        <v>45320</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4838,14 +4838,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4895,14 +4895,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46007</v>
+        <v>45317</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4914,13 +4914,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4957,14 +4952,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45318</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,7 +4972,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5014,14 +5009,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45399</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,7 +5029,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5071,14 +5066,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45392</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5091,7 +5086,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5128,14 +5123,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45349</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5147,8 +5142,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46035</v>
+        <v>45318</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5299,14 +5299,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45343</v>
+        <v>45061</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5318,13 +5318,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>10.6</v>
+        <v>6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5361,14 +5356,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45320</v>
+        <v>44876</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5376,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5418,14 +5413,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5433,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5475,14 +5470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45318</v>
+        <v>45429</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5490,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5532,14 +5527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45318</v>
+        <v>45273</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5547,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5589,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44417</v>
+        <v>45498.5925</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5608,8 +5603,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45628</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5703,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>46007</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5722,8 +5722,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5760,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44922</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5779,13 +5784,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5879,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44876</v>
+        <v>45392</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45434</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5955,8 +5955,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5998,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6018,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6070,7 +6075,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6107,14 +6112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>46035</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6164,14 +6169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44827</v>
+        <v>45069</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6183,8 +6188,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6231,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45318</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6251,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44845</v>
+        <v>45162</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6298,7 +6308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6335,14 +6345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45349</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6355,7 +6365,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6392,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45769</v>
+        <v>44720</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6412,7 +6422,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6449,14 +6459,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45769</v>
+        <v>45755</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6479,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6506,14 +6516,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45392</v>
+        <v>45532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6536,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6563,14 +6573,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45069</v>
+        <v>45320</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6582,13 +6592,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>11.4</v>
+        <v>4.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6630,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45407</v>
+        <v>44923</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6650,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6687,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45434</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6707,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6739,14 +6744,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45204</v>
+        <v>45334</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6758,13 +6763,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6820,8 +6820,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6858,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>44417</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6877,13 +6882,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 951-2024</t>
+          <t>A 7082-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45301</v>
+        <v>45343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,20 +1044,20 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>28.1</v>
+        <v>22.7</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1068,55 +1068,55 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Dvärgpipistrell</t>
+          <t>Småvänderot</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 3401-2024</t>
+          <t>A 20090-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45318</v>
+        <v>45434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1163,31 +1163,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Borsttåg</t>
+          <t>Hasselmus</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>44844</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,14 +1279,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 7082-2024</t>
+          <t>A 3401-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1298,13 +1298,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>22.7</v>
+        <v>6.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1313,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1331,52 +1326,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Småvänderot</t>
+          <t>Borsttåg</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2644-2026</t>
+          <t>A 951-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46037.62291666667</v>
+        <v>45301</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,11 +1383,16 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>28.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1413,129 +1413,129 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Dvärgpipistrell</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Flikbålmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 20090-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Hasselmus</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,14 +1653,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 25881-2021</t>
+          <t>A 25834-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44344.37106481481</v>
+        <v>44733.58805555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1672,13 +1672,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1715,14 +1710,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 25834-2022</t>
+          <t>A 25881-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44733.58805555556</v>
+        <v>44344.37106481481</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,8 +1729,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>18.4</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1891,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45089</v>
+        <v>45330</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,8 +1910,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>18.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1953,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45426</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,13 +1972,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2010,14 +2010,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45399</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2067,14 +2067,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45429</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2124,14 +2124,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45755</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2181,14 +2181,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45392</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2238,14 +2238,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44922</v>
+        <v>44978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,13 +2257,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2300,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45092</v>
+        <v>45498.5925</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,8 +2314,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2357,14 +2357,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44827</v>
+        <v>45089</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2414,14 +2414,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45318</v>
+        <v>45336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2471,14 +2471,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2528,14 +2528,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45318</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2585,14 +2585,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2642,14 +2642,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45324</v>
+        <v>45755</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,13 +2661,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2704,14 +2699,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45162</v>
+        <v>45348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2724,7 +2719,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2761,14 +2756,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45162</v>
+        <v>45324</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2780,8 +2775,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45628</v>
+        <v>45532</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45318</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2932,14 +2932,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44978</v>
+        <v>45429</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2989,14 +2989,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45628</v>
+        <v>45343</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3046,14 +3046,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45162</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45318</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3179,8 +3179,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3217,14 +3222,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45204</v>
+        <v>45426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3247,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3279,14 +3284,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45336</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3299,7 +3304,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3336,14 +3341,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45061</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3355,13 +3360,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3398,14 +3398,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3455,14 +3455,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3474,8 +3474,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3512,14 +3517,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45429</v>
+        <v>45318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3532,7 +3537,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3569,14 +3574,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45407</v>
+        <v>44923</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3589,7 +3594,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3626,14 +3631,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3646,7 +3651,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3683,14 +3688,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45112</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3702,13 +3707,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45273</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44845</v>
+        <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45769</v>
+        <v>45838</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45769</v>
+        <v>44876</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45092</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45318</v>
+        <v>45628</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45838</v>
+        <v>45755</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4144,14 +4144,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45343</v>
+        <v>45434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4201,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45320</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4220,13 +4220,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4263,14 +4258,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4283,7 +4278,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4320,14 +4315,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4340,7 +4335,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4377,14 +4372,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>44827</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4392,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4434,14 +4429,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45343</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4453,13 +4448,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>10.6</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4496,14 +4486,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45700</v>
+        <v>44845</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4516,7 +4506,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4553,14 +4543,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45273</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4573,7 +4563,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4610,14 +4600,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45875</v>
+        <v>45273</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4630,7 +4620,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4667,14 +4657,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45875</v>
+        <v>44720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,7 +4677,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4724,14 +4714,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45818</v>
+        <v>45700</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4744,7 +4734,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4781,14 +4771,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45320</v>
+        <v>45875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4801,7 +4791,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4838,14 +4828,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4858,7 +4848,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4895,14 +4885,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4915,7 +4905,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4952,14 +4942,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4972,7 +4962,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5009,14 +4999,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5029,7 +5019,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5066,14 +5056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45392</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5086,7 +5076,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5123,14 +5113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5142,13 +5132,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5185,14 +5170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45318</v>
+        <v>45349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,7 +5190,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5242,14 +5227,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45318</v>
+        <v>45317</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,7 +5247,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5299,14 +5284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45061</v>
+        <v>45162</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5319,7 +5304,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5356,14 +5341,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44876</v>
+        <v>45343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5375,8 +5360,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>10.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5413,14 +5403,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45320</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5433,7 +5423,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5470,14 +5460,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45429</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5490,7 +5480,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5527,14 +5517,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45273</v>
+        <v>45318</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,7 +5537,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5574,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45318</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5603,13 +5593,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5646,14 +5631,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>44417</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5651,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5703,14 +5688,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46007</v>
+        <v>45628</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5722,13 +5707,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5772,7 +5752,7 @@
         <v>44903.69670138889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5822,14 +5802,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>44922</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5841,8 +5821,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5864,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45392</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5899,7 +5884,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5921,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45769</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5955,13 +5940,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5998,14 +5978,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45348</v>
+        <v>45769</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6018,7 +5998,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6055,14 +6035,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45392</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6075,7 +6055,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6112,14 +6092,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46035</v>
+        <v>45069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6131,8 +6111,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>11.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6169,14 +6154,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45069</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6188,13 +6173,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6231,14 +6211,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45318</v>
+        <v>45407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6231,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6288,14 +6268,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45162</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6288,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6345,14 +6325,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45349</v>
+        <v>45204</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6364,8 +6344,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6387,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44720</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6421,8 +6406,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6459,14 +6449,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45755</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6479,7 +6469,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6516,14 +6506,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45532</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6535,8 +6525,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6573,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45320</v>
+        <v>45818</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6593,7 +6588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6630,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44923</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6650,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6687,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45434</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6706,8 +6701,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>7.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6744,14 +6744,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45334</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45329</v>
+        <v>46007</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44417</v>
+        <v>46035</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 7082-2024</t>
+          <t>A 3401-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1038,13 +1038,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>22.7</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1053,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1071,471 +1066,476 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 20090-2024</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45434</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Hasselmus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 951-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3401-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45318</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 951-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Dvärgpipistrell</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,14 +1653,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 25834-2022</t>
+          <t>A 25881-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44733.58805555556</v>
+        <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1672,8 +1672,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1710,14 +1715,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 25881-2021</t>
+          <t>A 25834-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44344.37106481481</v>
+        <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1729,13 +1734,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45329</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1848,13 +1848,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1891,14 +1886,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45330</v>
+        <v>44922</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1916,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>18.4</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1953,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1973,7 +1968,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2010,14 +2005,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2030,7 +2025,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2067,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45429</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2087,7 +2082,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2124,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2144,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2181,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45392</v>
+        <v>44978</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2201,7 +2196,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2238,14 +2233,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44978</v>
+        <v>45324</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,8 +2252,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45162</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,13 +2314,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2357,14 +2352,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45089</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2372,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2414,14 +2409,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45336</v>
+        <v>45318</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2429,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2471,14 +2466,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45318</v>
+        <v>44827</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2486,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2528,14 +2523,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45318</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2543,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2585,14 +2580,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45318</v>
+        <v>45336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2600,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2642,14 +2637,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45755</v>
+        <v>46035</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2657,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2699,14 +2694,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45348</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2714,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2756,14 +2751,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45324</v>
+        <v>45429</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,13 +2770,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2818,14 +2808,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45532</v>
+        <v>45407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2838,7 +2828,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,14 +2865,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45318</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2895,7 +2885,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2932,14 +2922,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45429</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2952,7 +2942,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2989,14 +2979,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45343</v>
+        <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3008,8 +2998,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3046,14 +3041,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45162</v>
+        <v>45273</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3066,7 +3061,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3103,14 +3098,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>44845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3123,7 +3118,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3160,14 +3155,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3179,13 +3174,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3222,14 +3212,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45426</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3241,13 +3231,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3284,14 +3269,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45769</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3289,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3341,14 +3326,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45061</v>
+        <v>45769</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3361,7 +3346,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3398,14 +3383,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3418,7 +3403,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3455,14 +3440,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45112</v>
+        <v>45700</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3474,13 +3459,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3517,14 +3497,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45318</v>
+        <v>45343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3537,7 +3517,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3574,14 +3554,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44923</v>
+        <v>45875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3594,7 +3574,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3631,14 +3611,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45334</v>
+        <v>45875</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3651,7 +3631,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3695,7 +3675,7 @@
         <v>45771.25997685185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3745,14 +3725,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,7 +3745,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3802,14 +3782,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45162</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,7 +3802,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3859,14 +3839,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45838</v>
+        <v>45343</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3878,8 +3858,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>10.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3916,14 +3901,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44876</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3936,7 +3921,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3973,14 +3958,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45092</v>
+        <v>45320</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3993,7 +3978,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4030,14 +4015,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45628</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4049,8 +4034,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4087,14 +4077,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45755</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4107,7 +4097,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4144,14 +4134,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45434</v>
+        <v>45317</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4164,7 +4154,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4201,14 +4191,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45320</v>
+        <v>45818</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4221,7 +4211,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4258,14 +4248,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4278,7 +4268,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4315,14 +4305,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4335,7 +4325,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4372,14 +4362,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44827</v>
+        <v>45318</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4392,7 +4382,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4429,14 +4419,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4449,7 +4439,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4486,14 +4476,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44845</v>
+        <v>45061</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4506,7 +4496,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4543,14 +4533,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45273</v>
+        <v>44876</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4563,7 +4553,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4600,14 +4590,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45273</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4620,7 +4610,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4657,14 +4647,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44720</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4677,7 +4667,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4714,14 +4704,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45700</v>
+        <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4734,7 +4724,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4771,14 +4761,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45875</v>
+        <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4791,7 +4781,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4828,14 +4818,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45875</v>
+        <v>45498.5925</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4847,8 +4837,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4885,14 +4880,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45318</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4905,7 +4900,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4942,14 +4937,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45399</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4957,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4999,14 +4994,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45392</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5014,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5056,14 +5051,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5075,8 +5070,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5113,14 +5113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,8 +5132,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5170,14 +5175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45349</v>
+        <v>45348</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5195,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5227,14 +5232,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45317</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5252,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5284,14 +5289,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45162</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5309,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5341,14 +5346,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45343</v>
+        <v>46007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>10.6</v>
+        <v>5.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5403,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45320</v>
+        <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5422,8 +5427,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>11.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5460,14 +5470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5490,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5517,14 +5527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45318</v>
+        <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5547,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5574,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45318</v>
+        <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5604,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5631,14 +5641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44417</v>
+        <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5661,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5688,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45628</v>
+        <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5745,14 +5755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5775,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5802,14 +5812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44922</v>
+        <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5821,13 +5831,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5864,14 +5869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5889,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5921,14 +5926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45769</v>
+        <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5941,7 +5946,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5978,14 +5983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45769</v>
+        <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5998,7 +6003,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6035,14 +6040,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45392</v>
+        <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6054,8 +6059,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6092,14 +6102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45069</v>
+        <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6111,13 +6121,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>11.4</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6154,14 +6159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6173,8 +6178,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>18.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6211,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45407</v>
+        <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6231,7 +6241,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6268,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6287,8 +6297,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6325,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45204</v>
+        <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6344,13 +6359,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6387,14 +6397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,13 +6416,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6449,14 +6454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6506,14 +6511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6525,13 +6530,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45818</v>
+        <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6701,13 +6701,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6744,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6763,8 +6758,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46007</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46035</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45343</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44922</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2062,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44978</v>
+        <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,8 +2195,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2233,14 +2238,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45324</v>
+        <v>45162</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,13 +2257,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45162</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2352,14 +2352,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>44978</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2409,14 +2409,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45318</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2466,14 +2466,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44827</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2523,14 +2523,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45318</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2580,14 +2580,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45336</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2637,14 +2637,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46035</v>
+        <v>45336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2694,14 +2694,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2751,14 +2751,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45429</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2808,14 +2808,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45407</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2865,14 +2865,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>46007</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,8 +2884,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2922,14 +2927,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2942,7 +2947,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2979,14 +2984,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45112</v>
+        <v>45429</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2998,13 +3003,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3041,14 +3041,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45273</v>
+        <v>45407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3098,14 +3098,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44845</v>
+        <v>45838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>4.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3155,14 +3155,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45838</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3212,14 +3212,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,8 +3231,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3269,14 +3274,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45769</v>
+        <v>45273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3294,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3326,14 +3331,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45769</v>
+        <v>44845</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3351,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3383,14 +3388,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45318</v>
+        <v>45769</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3408,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3440,14 +3445,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45700</v>
+        <v>45769</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3465,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3497,14 +3502,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45343</v>
+        <v>45700</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3522,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3554,14 +3559,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45875</v>
+        <v>45318</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3579,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3611,14 +3616,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45875</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,8 +3635,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3668,14 +3678,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45875</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3698,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3725,14 +3735,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3755,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3782,14 +3792,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3812,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3839,14 +3849,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45343</v>
+        <v>45818</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3858,13 +3868,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>10.6</v>
+        <v>6.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3901,14 +3906,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3921,7 +3926,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3958,14 +3963,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45320</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3978,7 +3983,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4015,14 +4020,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,13 +4039,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4077,14 +4077,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4096,8 +4096,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>10.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4134,14 +4139,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45317</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4154,7 +4159,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4191,14 +4196,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45818</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4211,7 +4216,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4248,14 +4253,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>46035</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4273,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4305,14 +4310,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45392</v>
+        <v>45320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4330,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4362,14 +4367,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45318</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4387,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4419,14 +4424,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45318</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4438,8 +4443,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4476,14 +4486,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45061</v>
+        <v>45317</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4506,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4533,14 +4543,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44876</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4563,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4590,14 +4600,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4620,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4647,14 +4657,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45318</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4677,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4704,14 +4714,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45429</v>
+        <v>45318</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4734,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4761,14 +4771,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45273</v>
+        <v>45061</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4791,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4818,14 +4828,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45498.5925</v>
+        <v>44876</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4837,13 +4847,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4880,14 +4885,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4905,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4937,14 +4942,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45429</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4957,7 +4962,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4994,14 +4999,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45392</v>
+        <v>45273</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5019,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5051,14 +5056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45498.5925</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5081,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5113,14 +5118,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,13 +5137,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5175,14 +5175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45348</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5232,14 +5232,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45392</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5308,8 +5308,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5346,14 +5351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46007</v>
+        <v>45348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5365,13 +5370,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45069</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,13 +5427,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>11.4</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5470,14 +5465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45318</v>
+        <v>45069</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5489,8 +5484,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>11.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45349</v>
+        <v>45162</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44720</v>
+        <v>45349</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45755</v>
+        <v>44720</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5755,14 +5755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45532</v>
+        <v>45755</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5812,14 +5812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45320</v>
+        <v>45532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5869,14 +5869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44923</v>
+        <v>45320</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5926,14 +5926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45434</v>
+        <v>44923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5983,14 +5983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45334</v>
+        <v>45434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6040,14 +6040,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6059,13 +6059,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6102,14 +6097,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44417</v>
+        <v>45329</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,8 +6116,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6159,14 +6159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45330</v>
+        <v>44417</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,13 +6178,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>18.4</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6216,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45089</v>
+        <v>45330</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6240,8 +6235,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>18.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45426</v>
+        <v>45089</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6297,13 +6297,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6335,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45399</v>
+        <v>45426</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6359,8 +6354,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6397,14 +6397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45755</v>
+        <v>45399</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6454,14 +6454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45092</v>
+        <v>45755</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45318</v>
+        <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45628</v>
+        <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6739,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45204</v>
+        <v>45628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6758,13 +6758,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6801,14 +6796,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45204</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6821,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6858,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6882,8 +6877,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,14 +1189,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7082-2024</t>
+          <t>A 2644-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45343</v>
+        <v>46037.62291666667</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,13 +1208,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>22.7</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1248,119 +1243,124 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Småvänderot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44922</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2062,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44827</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>44827</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45324</v>
+        <v>45204</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2238,14 +2238,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45162</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,8 +2314,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2352,14 +2357,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44978</v>
+        <v>45324</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2371,8 +2376,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2409,14 +2419,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45162</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2429,7 +2439,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2466,14 +2476,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2486,7 +2496,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2523,14 +2533,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45318</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2543,7 +2553,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2580,14 +2590,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>44978</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2600,7 +2610,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2637,14 +2647,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45336</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2657,7 +2667,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2694,14 +2704,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45318</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2714,7 +2724,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2751,14 +2761,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2771,7 +2781,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2808,14 +2818,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2828,7 +2838,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2865,14 +2875,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46007</v>
+        <v>45336</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2884,13 +2894,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2927,14 +2932,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2952,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2984,14 +2989,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45429</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3009,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3041,14 +3046,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45407</v>
+        <v>45429</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3066,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3098,14 +3103,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45838</v>
+        <v>45407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3123,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3162,7 +3167,7 @@
         <v>45600.44368055555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3212,14 +3217,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45112</v>
+        <v>45838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,13 +3236,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45273</v>
+        <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3293,8 +3293,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3331,14 +3336,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44845</v>
+        <v>45273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3351,7 +3356,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3388,14 +3393,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45769</v>
+        <v>44845</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3408,7 +3413,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3445,14 +3450,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45769</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,8 +3469,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3502,14 +3512,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45700</v>
+        <v>45769</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3522,7 +3532,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3559,14 +3569,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45318</v>
+        <v>45769</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3579,7 +3589,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3616,14 +3626,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,13 +3645,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3678,14 +3683,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45875</v>
+        <v>45818</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3698,7 +3703,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3735,14 +3740,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45875</v>
+        <v>45700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3755,7 +3760,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3799,7 +3804,7 @@
         <v>45343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3849,14 +3854,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45818</v>
+        <v>45875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3869,7 +3874,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3906,14 +3911,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3926,7 +3931,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3963,14 +3968,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3983,7 +3988,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4020,14 +4025,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4040,7 +4045,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4077,14 +4082,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45343</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4096,13 +4101,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>10.6</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4139,14 +4139,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45343</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4158,8 +4158,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>10.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4196,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4253,14 +4258,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46035</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4272,8 +4277,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4317,7 +4327,7 @@
         <v>45320</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4374,7 +4384,7 @@
         <v>45547.60444444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4424,14 +4434,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4443,13 +4453,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4486,14 +4491,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45317</v>
+        <v>46007</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4505,8 +4510,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4543,14 +4553,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45317</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4563,7 +4573,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4600,14 +4610,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45392</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4620,7 +4630,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4657,14 +4667,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45318</v>
+        <v>45392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4677,7 +4687,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4714,14 +4724,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4734,7 +4744,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4771,14 +4781,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45061</v>
+        <v>45318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4791,7 +4801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4828,14 +4838,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44876</v>
+        <v>45061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4848,7 +4858,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4885,14 +4895,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>44876</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4905,7 +4915,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4942,14 +4952,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45429</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4972,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4999,14 +5009,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45273</v>
+        <v>46035</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5056,14 +5066,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5075,13 +5085,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5118,14 +5123,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5143,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5175,14 +5180,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45498.5925</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,8 +5199,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5232,14 +5242,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45392</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5262,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5289,14 +5299,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5308,13 +5318,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5351,14 +5356,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45348</v>
+        <v>45392</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5376,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5413,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,8 +5432,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5465,14 +5475,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45069</v>
+        <v>45348</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5484,13 +5494,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>11.4</v>
+        <v>6.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5527,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45318</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,7 +5552,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5589,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45162</v>
+        <v>45069</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5603,8 +5608,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>11.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5641,14 +5651,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45349</v>
+        <v>45318</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5661,7 +5671,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5708,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44720</v>
+        <v>45162</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5718,7 +5728,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5755,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45755</v>
+        <v>45349</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5775,7 +5785,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5812,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45532</v>
+        <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5832,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5869,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45320</v>
+        <v>45755</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,7 +5899,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5926,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44923</v>
+        <v>45532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5983,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45434</v>
+        <v>45320</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6003,7 +6013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6040,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45334</v>
+        <v>44923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6060,7 +6070,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6097,14 +6107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45329</v>
+        <v>45434</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6116,13 +6126,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6159,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44417</v>
+        <v>45334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6184,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6216,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>18.4</v>
+        <v>4.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45089</v>
+        <v>44417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6298,7 +6303,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6335,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45426</v>
+        <v>45330</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6365,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>18.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6397,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45399</v>
+        <v>45089</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6417,7 +6422,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6454,14 +6459,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45755</v>
+        <v>45426</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6473,8 +6478,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45092</v>
+        <v>45399</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6541,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45318</v>
+        <v>45755</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6598,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45162</v>
+        <v>45092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6655,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45628</v>
+        <v>45318</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6712,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6739,14 +6749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45628</v>
+        <v>45162</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6759,7 +6769,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6796,14 +6806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45204</v>
+        <v>45628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,13 +6825,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6858,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45628</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6877,13 +6882,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,14 +1104,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 45802-2022</t>
+          <t>A 2644-2026</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44844</v>
+        <v>46037.62291666667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1158,294 +1158,294 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 20090-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Hasselmus</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Hartsticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 7082-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 20090-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Hasselmus</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1848,8 +1848,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1886,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44922</v>
+        <v>45755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1905,13 +1910,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45318</v>
+        <v>45204</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,8 +1967,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2005,14 +2010,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45318</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2025,7 +2030,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2062,14 +2067,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,8 +2086,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2129,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44827</v>
+        <v>45324</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,8 +2148,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2191,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45204</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,13 +2210,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2238,14 +2248,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,8 +2267,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2310,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45818</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,13 +2329,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2357,14 +2367,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2382,7 +2392,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>18.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2419,14 +2429,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45162</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2439,7 +2449,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2476,14 +2486,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>44978</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2496,7 +2506,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2533,14 +2543,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45498.5925</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2552,8 +2562,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2590,14 +2605,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44978</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2610,7 +2625,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2647,14 +2662,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45089</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2667,7 +2682,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2704,14 +2719,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45318</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2724,7 +2739,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2761,14 +2776,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2781,7 +2796,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2818,14 +2833,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45838</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2838,7 +2853,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,14 +2890,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45336</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2894,8 +2909,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2932,14 +2952,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2951,8 +2971,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2989,14 +3014,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3008,8 +3033,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>7.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3046,14 +3076,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45429</v>
+        <v>45700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3066,7 +3096,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3103,14 +3133,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45407</v>
+        <v>45318</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3123,7 +3153,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3160,14 +3190,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>44923</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3210,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3217,14 +3247,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45838</v>
+        <v>45875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3237,7 +3267,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3274,14 +3304,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45112</v>
+        <v>45875</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3293,13 +3323,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3343,7 +3368,7 @@
         <v>45273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3393,14 +3418,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44845</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3413,7 +3438,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3450,14 +3475,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3469,13 +3494,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3512,14 +3532,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45769</v>
+        <v>46007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3531,8 +3551,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3569,14 +3594,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45769</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3589,7 +3614,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3626,14 +3651,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45318</v>
+        <v>45317</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3646,7 +3671,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3683,14 +3708,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45818</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3703,7 +3728,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3740,14 +3765,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45700</v>
+        <v>45429</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3760,7 +3785,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3797,14 +3822,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45343</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3817,7 +3842,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3854,14 +3879,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45875</v>
+        <v>45392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3874,7 +3899,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3911,14 +3936,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45875</v>
+        <v>45336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3931,7 +3956,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3968,14 +3993,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45318</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4025,14 +4050,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45318</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4045,7 +4070,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4082,14 +4107,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45318</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4102,7 +4127,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4139,14 +4164,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45343</v>
+        <v>46035</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4158,13 +4183,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>10.6</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4201,14 +4221,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45348</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4221,7 +4241,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4258,14 +4278,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45532</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4277,13 +4297,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4320,14 +4335,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45320</v>
+        <v>45318</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4340,7 +4355,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4377,14 +4392,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45429</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4397,7 +4412,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4434,14 +4449,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45162</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4454,7 +4469,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4491,14 +4506,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46007</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4510,13 +4525,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4553,14 +4563,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45317</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4573,7 +4583,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4610,14 +4620,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45061</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4630,7 +4640,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4667,14 +4677,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45392</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,7 +4697,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4724,14 +4734,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45318</v>
+        <v>45112</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4743,8 +4753,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4781,14 +4796,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45318</v>
+        <v>45334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4801,7 +4816,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4838,14 +4853,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45061</v>
+        <v>45162</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4858,7 +4873,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4895,14 +4910,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44876</v>
+        <v>45092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4915,7 +4930,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4952,14 +4967,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45628</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4972,7 +4987,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5009,14 +5024,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46035</v>
+        <v>45755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5066,14 +5081,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45429</v>
+        <v>45273</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5086,7 +5101,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5123,14 +5138,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45273</v>
+        <v>44720</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5143,7 +5158,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5180,14 +5195,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45318</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5199,13 +5214,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5242,14 +5252,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45399</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,7 +5272,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5299,14 +5309,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5319,7 +5329,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5356,14 +5366,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45392</v>
+        <v>45349</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5376,7 +5386,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5413,14 +5423,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45162</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5432,13 +5442,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5475,14 +5480,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45348</v>
+        <v>45343</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5494,8 +5499,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>6.9</v>
+        <v>10.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5532,14 +5542,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45320</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5562,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5589,14 +5599,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45069</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5608,13 +5618,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5651,14 +5656,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5671,7 +5676,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5708,14 +5713,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5733,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5770,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45349</v>
+        <v>44417</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,7 +5790,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5827,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44720</v>
+        <v>45628</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5847,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5884,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45755</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5899,7 +5904,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5941,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45532</v>
+        <v>44922</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5955,8 +5960,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +6003,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45320</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6023,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6060,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44923</v>
+        <v>44876</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6070,7 +6080,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6114,7 +6124,7 @@
         <v>45434</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6164,14 +6174,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45334</v>
+        <v>45320</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6194,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6231,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45329</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6240,13 +6250,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6283,14 +6288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44417</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6359,13 +6364,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>18.4</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45089</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6459,14 +6459,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45426</v>
+        <v>44845</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6478,13 +6478,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>14</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6516,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45399</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6541,7 +6536,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6573,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45755</v>
+        <v>45769</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6593,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6630,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45092</v>
+        <v>45769</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6655,7 +6650,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6692,14 +6687,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45318</v>
+        <v>45392</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6712,7 +6707,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6744,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45162</v>
+        <v>45069</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6768,8 +6763,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45628</v>
+        <v>45407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45628</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,14 +1104,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2644-2026</t>
+          <t>A 45802-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46037.62291666667</v>
+        <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1158,31 +1158,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Flikbålmossa</t>
+          <t>Hartsticka</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
         <v/>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         <v>45343</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,14 +1279,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 20090-2024</t>
+          <t>A 2644-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45434</v>
+        <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,20 +1299,20 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1323,129 +1323,129 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 20090-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Hasselmus</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45329</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1848,13 +1848,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1891,14 +1886,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45755</v>
+        <v>44922</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,8 +1905,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45204</v>
+        <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,13 +1967,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2010,14 +2005,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2030,7 +2025,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2067,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2086,13 +2081,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2129,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45324</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,13 +2138,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2191,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2210,8 +2195,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2248,14 +2238,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45162</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2267,13 +2257,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2310,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45818</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2330,7 +2315,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2367,14 +2352,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45330</v>
+        <v>44978</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2386,13 +2371,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>18.4</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2429,14 +2409,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45318</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2449,7 +2429,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2486,14 +2466,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44978</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2506,7 +2486,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2543,14 +2523,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2562,13 +2542,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2605,14 +2580,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2625,7 +2600,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2662,14 +2637,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45089</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2682,7 +2657,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2719,14 +2694,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45429</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2739,7 +2714,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2776,14 +2751,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45343</v>
+        <v>45407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2796,7 +2771,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2833,14 +2808,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45838</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2853,7 +2828,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2890,14 +2865,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,13 +2884,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2952,14 +2922,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45426</v>
+        <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2947,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3014,14 +2984,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3033,13 +3003,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3076,14 +3041,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45700</v>
+        <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3061,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3133,14 +3098,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45318</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3118,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3190,14 +3155,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44923</v>
+        <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3175,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3247,14 +3212,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45875</v>
+        <v>45769</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3232,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3304,14 +3269,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45875</v>
+        <v>45838</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3324,7 +3289,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3361,14 +3326,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45273</v>
+        <v>45318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3381,7 +3346,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3418,14 +3383,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3438,7 +3403,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3475,14 +3440,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45700</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3495,7 +3460,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3532,14 +3497,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46007</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3551,13 +3516,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3594,14 +3554,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3574,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3651,14 +3611,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45317</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3631,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3708,14 +3668,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3727,8 +3687,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>10.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3765,14 +3730,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45429</v>
+        <v>45875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3750,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3822,14 +3787,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3807,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3879,14 +3844,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45392</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3936,14 +3901,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45336</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3955,8 +3920,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3993,14 +3963,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45318</v>
+        <v>45818</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4013,7 +3983,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4050,14 +4020,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4070,7 +4040,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4107,14 +4077,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45318</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4127,7 +4097,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4164,14 +4134,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46035</v>
+        <v>45317</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4184,7 +4154,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4221,14 +4191,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45348</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4241,7 +4211,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4278,14 +4248,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45532</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4268,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4335,14 +4305,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45318</v>
+        <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4325,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4392,14 +4362,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45429</v>
+        <v>45318</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4382,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4449,14 +4419,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45162</v>
+        <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4439,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4506,14 +4476,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4525,8 +4495,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>7.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4563,14 +4538,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45061</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4558,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4620,14 +4595,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45061</v>
+        <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4615,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4677,14 +4652,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4672,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4734,14 +4709,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45112</v>
+        <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4753,13 +4728,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4796,14 +4766,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45334</v>
+        <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4816,7 +4786,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4853,14 +4823,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45162</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4873,7 +4843,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4910,14 +4880,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45092</v>
+        <v>45498.5925</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4929,8 +4899,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4967,14 +4942,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45628</v>
+        <v>46007</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4986,8 +4961,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5024,14 +5004,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45755</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5044,7 +5024,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5081,14 +5061,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45273</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5101,7 +5081,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5138,14 +5118,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44720</v>
+        <v>45392</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5158,7 +5138,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5195,14 +5175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45318</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5214,8 +5194,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5252,14 +5237,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45399</v>
+        <v>45348</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5272,7 +5257,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5309,14 +5294,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5329,7 +5314,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5366,14 +5351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45349</v>
+        <v>46035</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5386,7 +5371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5423,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45162</v>
+        <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5442,8 +5427,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>11.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5480,14 +5470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5499,13 +5489,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>10.6</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5542,14 +5527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45320</v>
+        <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5562,7 +5547,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5599,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5619,7 +5604,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5656,14 +5641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45318</v>
+        <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5676,7 +5661,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5713,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45318</v>
+        <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5733,7 +5718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5770,14 +5755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44417</v>
+        <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5790,7 +5775,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5827,14 +5812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45628</v>
+        <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5847,7 +5832,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5884,14 +5869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5904,7 +5889,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5941,14 +5926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44922</v>
+        <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5960,13 +5945,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6003,14 +5983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6003,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6060,14 +6040,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44876</v>
+        <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6079,8 +6059,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6117,14 +6102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45434</v>
+        <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6122,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6174,14 +6159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45320</v>
+        <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6193,8 +6178,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>18.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6231,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6241,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6288,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6307,8 +6297,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6345,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44827</v>
+        <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6360,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6459,14 +6454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44845</v>
+        <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6479,7 +6474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>14</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6516,14 +6511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6536,7 +6531,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6573,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45769</v>
+        <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6593,7 +6588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6630,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45769</v>
+        <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6650,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6687,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45392</v>
+        <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6702,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>7.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6744,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45069</v>
+        <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6764,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45407</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6825,8 +6820,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45343</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44922</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45162</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>45180.5609375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44978</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45318</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45740.26850694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45652.38005787037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45397.50576388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45429</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45831.6150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45600.44368055555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45898.52972222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45769</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45838</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>45700</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45771.25997685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>44943.67172453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45180.31387731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45474.39143518519</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45938.55403935185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45818</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45547.60444444444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45317</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45971.59123842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45318</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45993.65428240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45061</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45555.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45498.5925</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>46007</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44903.69670138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45569.63178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45392</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44657.53449074074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45348</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45043.60021990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>46035</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44844</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>45343</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>45434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>44922</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45318</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45162</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>45180.5609375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44978</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45318</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45740.26850694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>45652.38005787037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45397.50576388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45429</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45831.6150462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45600.44368055555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>45898.52972222222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>45769</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45769</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>45838</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>45700</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45771.25997685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>44943.67172453704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45180.31387731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45474.39143518519</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45938.55403935185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45818</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>45320</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45547.60444444444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45317</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45971.59123842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45392.61707175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45392</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45318</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45318</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45993.65428240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45061</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45555.74299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>45429</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45273</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>46006.69094907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45498.5925</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>46007</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>44903.69670138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45569.63178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45392</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44657.53449074074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>45348</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45043.60021990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>46035</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45069</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45755</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45320</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44923</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45329</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44417</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45330</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45089</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45426</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45399</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45755</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45318</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45628</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45728.61288194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45790.71023148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 19874-2024</t>
+          <t>A 27430-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45433</v>
+        <v>45474</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -804,132 +804,132 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Bokoxe
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 27430-2024 artfynd.xlsx", "A 27430-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 27430-2024 karta.png", "A 27430-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 27430-2024 FSC-klagomål.docx", "A 27430-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 27430-2024 FSC-klagomål mail.docx", "A 27430-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 27430-2024 tillsynsbegäran.docx", "A 27430-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 27430-2024 tillsynsbegäran mail.docx", "A 27430-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/fåglar/A 27430-2024 prioriterade fågelarter.docx", "A 27430-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 19874-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Grönsiska
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 19874-2024 artfynd.xlsx", "A 19874-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 19874-2024 karta.png", "A 19874-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 19874-2024 FSC-klagomål.docx", "A 19874-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 19874-2024 FSC-klagomål mail.docx", "A 19874-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 19874-2024 tillsynsbegäran.docx", "A 19874-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 19874-2024 tillsynsbegäran mail.docx", "A 19874-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/fåglar/A 19874-2024 prioriterade fågelarter.docx", "A 19874-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 27430-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Bokoxe
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 27430-2024 artfynd.xlsx", "A 27430-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 27430-2024 karta.png", "A 27430-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 27430-2024 FSC-klagomål.docx", "A 27430-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 27430-2024 FSC-klagomål mail.docx", "A 27430-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 27430-2024 tillsynsbegäran.docx", "A 27430-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 27430-2024 tillsynsbegäran mail.docx", "A 27430-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/fåglar/A 27430-2024 prioriterade fågelarter.docx", "A 27430-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3401-2024</t>
+          <t>A 20090-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45318</v>
+        <v>45434</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1073,469 +1073,469 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Hasselmus</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 951-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Dvärgpipistrell</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 3401-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 7082-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 20090-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Hasselmus</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 951-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgpipistrell</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45755</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1886,14 +1886,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44922</v>
+        <v>45329</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45318</v>
+        <v>45273</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45318</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44827</v>
+        <v>45343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45324</v>
+        <v>45317</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,13 +2195,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2238,14 +2233,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45162</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,8 +2252,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45324</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,8 +2314,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2352,14 +2357,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44978</v>
+        <v>45426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2371,8 +2376,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2409,14 +2419,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45318</v>
+        <v>45348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2429,7 +2439,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2466,14 +2476,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2486,7 +2496,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2523,14 +2533,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45336</v>
+        <v>45318</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2543,7 +2553,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2580,14 +2590,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45429</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2600,7 +2610,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2637,14 +2647,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2657,7 +2667,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2694,14 +2704,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45429</v>
+        <v>45318</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2714,7 +2724,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2751,14 +2761,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45407</v>
+        <v>45429</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2771,7 +2781,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2808,14 +2818,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>44923</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2828,7 +2838,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2865,14 +2875,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2885,7 +2895,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2922,14 +2932,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45112</v>
+        <v>45392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2941,13 +2951,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2984,14 +2989,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3009,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3041,14 +3046,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44845</v>
+        <v>44720</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3066,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3098,14 +3103,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45162</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3123,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3155,14 +3160,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45769</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3180,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3212,14 +3217,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45769</v>
+        <v>45336</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3237,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3269,14 +3274,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45838</v>
+        <v>45318</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3294,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3326,14 +3331,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>45318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3351,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3383,14 +3388,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3408,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3440,14 +3445,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45700</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3465,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3497,14 +3502,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45061</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3522,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3554,14 +3559,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3579,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3611,14 +3616,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3630,8 +3635,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3668,14 +3678,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45343</v>
+        <v>45334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3687,13 +3697,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>10.6</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3730,14 +3735,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45875</v>
+        <v>45318</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3750,7 +3755,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3787,14 +3792,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45875</v>
+        <v>45162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3807,7 +3812,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3844,14 +3849,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45330</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,8 +3868,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>18.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3901,14 +3911,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,13 +3930,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3963,14 +3968,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45818</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3983,7 +3988,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4020,14 +4025,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45320</v>
+        <v>45092</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4040,7 +4045,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4077,14 +4082,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45628</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4097,7 +4102,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4134,14 +4139,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45317</v>
+        <v>45755</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4154,7 +4159,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4191,14 +4196,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4211,7 +4216,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4248,14 +4253,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>44978</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4273,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4305,14 +4310,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45392</v>
+        <v>45349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4330,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4362,14 +4367,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45318</v>
+        <v>45498.5925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4381,8 +4386,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4419,14 +4429,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45318</v>
+        <v>45162</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4449,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4476,14 +4486,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45343</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4501,7 +4511,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.8</v>
+        <v>10.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4538,14 +4548,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45061</v>
+        <v>45320</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4558,7 +4568,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4595,14 +4605,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44876</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4615,7 +4625,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4652,14 +4662,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45089</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4682,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4709,14 +4719,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45429</v>
+        <v>45318</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4729,7 +4739,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4766,14 +4776,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45273</v>
+        <v>45318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4786,7 +4796,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4823,14 +4833,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>44417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4843,7 +4853,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4880,14 +4890,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45628</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4899,13 +4909,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4942,14 +4947,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46007</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4961,13 +4966,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5004,14 +5004,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>44922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5023,8 +5023,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5061,14 +5066,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5086,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5118,14 +5123,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45392</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5143,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5175,14 +5180,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>44876</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,13 +5199,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5237,14 +5237,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45348</v>
+        <v>45434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5294,14 +5294,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45320</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5351,14 +5351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46035</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45069</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,13 +5427,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>11.4</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5470,14 +5465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45318</v>
+        <v>44827</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5490,7 +5485,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5527,14 +5522,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45162</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5547,7 +5542,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5579,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45349</v>
+        <v>44845</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5604,7 +5599,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>14</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5641,14 +5636,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44720</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5660,8 +5655,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45755</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5755,14 +5755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45532</v>
+        <v>45769</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5812,14 +5812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45320</v>
+        <v>45769</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5869,14 +5869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44923</v>
+        <v>45818</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5926,14 +5926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45434</v>
+        <v>45392</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5983,14 +5983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45334</v>
+        <v>45069</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6002,8 +6002,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>11.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6040,14 +6045,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45329</v>
+        <v>45407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6059,13 +6064,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6102,14 +6102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44417</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6159,14 +6159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45330</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,13 +6178,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>18.4</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6216,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45089</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6240,8 +6235,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45426</v>
+        <v>45204</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45399</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6397,14 +6397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45755</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6416,8 +6416,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6454,14 +6459,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45092</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6474,7 +6479,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6516,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45318</v>
+        <v>46007</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6530,8 +6535,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45162</v>
+        <v>46035</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6588,7 +6598,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45628</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6655,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45628</v>
+        <v>45838</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6712,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6739,14 +6749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45204</v>
+        <v>45700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6758,13 +6768,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6801,14 +6806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45875</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6820,13 +6825,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 27430-2024</t>
+          <t>A 19874-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45474</v>
+        <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -804,132 +804,132 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Grönsiska
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 19874-2024 artfynd.xlsx", "A 19874-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 19874-2024 karta.png", "A 19874-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 19874-2024 FSC-klagomål.docx", "A 19874-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 19874-2024 FSC-klagomål mail.docx", "A 19874-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 19874-2024 tillsynsbegäran.docx", "A 19874-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 19874-2024 tillsynsbegäran mail.docx", "A 19874-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/fåglar/A 19874-2024 prioriterade fågelarter.docx", "A 19874-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 27430-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Bokoxe
 Rostfläck</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 27430-2024 artfynd.xlsx", "A 27430-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 27430-2024 karta.png", "A 27430-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 27430-2024 FSC-klagomål.docx", "A 27430-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 27430-2024 FSC-klagomål mail.docx", "A 27430-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 27430-2024 tillsynsbegäran.docx", "A 27430-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 27430-2024 tillsynsbegäran mail.docx", "A 27430-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/fåglar/A 27430-2024 prioriterade fågelarter.docx", "A 27430-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 19874-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45433</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Grönsiska
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 19874-2024 artfynd.xlsx", "A 19874-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 19874-2024 karta.png", "A 19874-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 19874-2024 FSC-klagomål.docx", "A 19874-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 19874-2024 FSC-klagomål mail.docx", "A 19874-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 19874-2024 tillsynsbegäran.docx", "A 19874-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 19874-2024 tillsynsbegäran mail.docx", "A 19874-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/fåglar/A 19874-2024 prioriterade fågelarter.docx", "A 19874-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 20090-2024</t>
+          <t>A 3401-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45434</v>
+        <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,17 +1039,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1073,469 +1073,469 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 45802-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Flikbålmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 20090-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Hasselmus</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 7082-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 951-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="G12" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 951-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Dvärgpipistrell</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 951-2024 artfynd.xlsx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 951-2024 karta.png", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 951-2024 FSC-klagomål.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 951-2024 FSC-klagomål mail.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 951-2024 tillsynsbegäran.docx", "A 951-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 951-2024 tillsynsbegäran mail.docx", "A 951-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 2644-2026</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>46037.62291666667</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Flikbålmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 3401-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45318</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45755</v>
+        <v>44922</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1848,8 +1848,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1886,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45329</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1905,13 +1910,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45273</v>
+        <v>44827</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45343</v>
+        <v>45318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,8 +2195,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2233,14 +2238,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45162</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,13 +2257,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2295,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45324</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,13 +2314,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2357,14 +2352,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45426</v>
+        <v>44978</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,13 +2371,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2419,14 +2409,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45348</v>
+        <v>45204</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,8 +2428,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2476,14 +2471,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45532</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2496,7 +2491,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2533,14 +2528,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45318</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2552,8 +2547,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2590,14 +2590,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45429</v>
+        <v>45318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2647,14 +2647,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2704,14 +2704,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45318</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2761,14 +2761,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45429</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2818,14 +2818,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44923</v>
+        <v>45336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,14 +2875,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2894,8 +2894,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2932,14 +2937,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45392</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2952,7 +2957,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2989,14 +2994,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45273</v>
+        <v>45429</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3009,7 +3014,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3046,14 +3051,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44720</v>
+        <v>45407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3066,7 +3071,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3103,14 +3108,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45162</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3123,7 +3128,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3160,14 +3165,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3180,7 +3185,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3217,14 +3222,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45336</v>
+        <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3236,8 +3241,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3274,14 +3284,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45318</v>
+        <v>45273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3294,7 +3304,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3331,14 +3341,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45318</v>
+        <v>44845</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3351,7 +3361,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3388,14 +3398,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45318</v>
+        <v>45838</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3408,7 +3418,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3445,14 +3455,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45769</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3465,7 +3475,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3502,14 +3512,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45061</v>
+        <v>45769</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3522,7 +3532,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3559,14 +3569,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45318</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3579,7 +3589,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3616,14 +3626,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45112</v>
+        <v>45818</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,13 +3645,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3678,14 +3683,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45334</v>
+        <v>45343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3698,7 +3703,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3735,14 +3740,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45318</v>
+        <v>45700</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3755,7 +3760,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3792,14 +3797,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45162</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3812,7 +3817,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3849,14 +3854,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45330</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3868,13 +3873,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>18.4</v>
+        <v>0.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3911,14 +3911,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45399</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3968,14 +3968,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45875</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4025,14 +4025,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45092</v>
+        <v>45875</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4082,14 +4082,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45628</v>
+        <v>45343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,8 +4101,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>7.5</v>
+        <v>10.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4139,14 +4144,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45755</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4159,7 +4164,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4196,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4216,7 +4221,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4253,14 +4258,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44978</v>
+        <v>45320</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4273,7 +4278,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4310,14 +4315,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45349</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4330,7 +4335,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4367,14 +4372,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45317</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4386,13 +4391,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4429,14 +4429,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45162</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4448,8 +4448,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4486,14 +4491,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45343</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4505,13 +4510,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>10.6</v>
+        <v>5.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4548,14 +4548,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45320</v>
+        <v>45392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4605,14 +4605,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45318</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4662,14 +4662,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45089</v>
+        <v>45318</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4719,14 +4719,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45318</v>
+        <v>45061</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4776,14 +4776,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45318</v>
+        <v>44876</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4833,14 +4833,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44417</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4890,14 +4890,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45628</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4947,14 +4947,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>46007</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4966,8 +4966,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5004,14 +5009,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44922</v>
+        <v>45429</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5023,13 +5028,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5066,14 +5066,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45273</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5123,14 +5123,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45498.5925</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5142,8 +5142,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5180,14 +5185,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44876</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5200,7 +5205,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5237,14 +5242,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45434</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5257,7 +5262,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5294,14 +5299,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45320</v>
+        <v>45392</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5314,7 +5319,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5351,14 +5356,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5370,8 +5375,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5418,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45348</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5438,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5465,14 +5475,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44827</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5495,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5522,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45069</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5541,8 +5551,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5579,14 +5594,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44845</v>
+        <v>45318</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5614,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>14</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5636,14 +5651,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>46035</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,13 +5670,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5708,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45162</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5718,7 +5728,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5755,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45769</v>
+        <v>45349</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5775,7 +5785,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5812,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45769</v>
+        <v>44720</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5832,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5869,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45818</v>
+        <v>45755</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5889,7 +5899,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5926,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45392</v>
+        <v>45532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5983,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45069</v>
+        <v>45320</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6002,13 +6012,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>11.4</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6045,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45407</v>
+        <v>44923</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6070,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6102,14 +6107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45434</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6127,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6159,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6184,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6216,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45329</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45204</v>
+        <v>44417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6297,13 +6302,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45330</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6359,8 +6359,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>18.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6397,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45089</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6416,13 +6421,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6459,14 +6459,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45426</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6478,8 +6478,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6516,14 +6521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46007</v>
+        <v>45399</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6535,13 +6540,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46035</v>
+        <v>45755</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6692,14 +6692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45838</v>
+        <v>45318</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45700</v>
+        <v>45162</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45875</v>
+        <v>45628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45875</v>
+        <v>45628</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3401-2024</t>
+          <t>A 20090-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45318</v>
+        <v>45434</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1073,209 +1073,209 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Hasselmus</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 7082-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Småvänderot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 3401-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 7082-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Småvänderot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 7082-2024 artfynd.xlsx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 7082-2024 karta.png", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 7082-2024 FSC-klagomål.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 7082-2024 FSC-klagomål mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 7082-2024 tillsynsbegäran.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 7082-2024 tillsynsbegäran mail.docx", "A 7082-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,14 +1364,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 20090-2024</t>
+          <t>A 45802-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45434</v>
+        <v>44844</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1384,23 +1384,23 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1408,41 +1408,41 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Hasselmus</t>
+          <t>Hartsticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
         <v/>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 5028-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44922</v>
+        <v>45329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1891,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45343</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44827</v>
+        <v>44876</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45318</v>
+        <v>45434</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45324</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,13 +2195,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2238,14 +2233,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45162</v>
+        <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2258,7 +2253,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2295,14 +2290,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,8 +2309,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2352,14 +2352,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44978</v>
+        <v>45426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2371,8 +2371,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2409,14 +2414,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45204</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,13 +2433,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2471,14 +2471,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2528,14 +2528,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,13 +2547,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2590,14 +2585,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45318</v>
+        <v>45755</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2610,7 +2605,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2647,14 +2642,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2667,7 +2662,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2704,14 +2699,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>45318</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2724,7 +2719,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2761,14 +2756,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>44923</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2781,7 +2776,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2818,14 +2813,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45336</v>
+        <v>45318</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2838,7 +2833,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,14 +2870,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45324</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2900,7 +2895,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2937,14 +2932,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2957,7 +2952,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2994,14 +2989,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45429</v>
+        <v>45273</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3014,7 +3009,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3051,14 +3046,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45407</v>
+        <v>45769</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3071,7 +3066,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3108,14 +3103,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45769</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3165,14 +3160,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45330</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3184,8 +3179,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>18.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3222,14 +3222,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45112</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3241,13 +3241,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3284,14 +3279,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45273</v>
+        <v>45392</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3304,7 +3299,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3341,14 +3336,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44845</v>
+        <v>45069</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3360,8 +3355,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3398,14 +3398,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45838</v>
+        <v>44978</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3455,14 +3455,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45769</v>
+        <v>45498.5925</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3474,8 +3474,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3512,14 +3517,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45769</v>
+        <v>45429</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3532,7 +3537,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3569,14 +3574,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45318</v>
+        <v>45089</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3589,7 +3594,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3626,14 +3631,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45818</v>
+        <v>45407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3646,7 +3651,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3683,14 +3688,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45343</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3703,7 +3708,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3740,14 +3745,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45700</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3760,7 +3765,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3797,14 +3802,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3817,7 +3822,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3854,14 +3859,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>45162</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3874,7 +3879,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.1</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3911,14 +3916,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3931,7 +3936,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3968,14 +3973,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45875</v>
+        <v>45317</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3988,7 +3993,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4025,14 +4030,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45875</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4045,7 +4050,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4082,14 +4087,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45343</v>
+        <v>45061</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4101,13 +4106,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>10.6</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4144,14 +4144,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4201,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45112</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4220,8 +4220,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4258,14 +4263,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45320</v>
+        <v>45334</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4278,7 +4283,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4315,14 +4320,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45162</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4335,7 +4340,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4372,14 +4377,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45317</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4392,7 +4397,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4429,14 +4434,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45429</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4448,13 +4453,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,7 +4498,7 @@
         <v>45392.61707175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>45392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4605,14 +4605,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45318</v>
+        <v>45204</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4624,8 +4624,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4662,14 +4667,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45318</v>
+        <v>45092</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4682,7 +4687,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4719,14 +4724,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45061</v>
+        <v>45628</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4744,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4776,14 +4781,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44876</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4796,7 +4801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4833,14 +4838,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4852,8 +4857,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4890,14 +4900,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45755</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4910,7 +4920,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4947,14 +4957,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46007</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4966,13 +4976,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5009,14 +5014,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45429</v>
+        <v>45336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5029,7 +5034,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5066,14 +5071,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45273</v>
+        <v>45318</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5086,7 +5091,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5123,14 +5128,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45318</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5142,13 +5147,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45318</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45273</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5299,14 +5299,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45392</v>
+        <v>44720</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5356,14 +5356,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5418,14 +5418,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45348</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5475,14 +5475,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>6.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5532,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45069</v>
+        <v>45318</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5551,13 +5551,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>11.4</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5594,14 +5589,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45318</v>
+        <v>45399</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5614,7 +5609,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5651,14 +5646,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46035</v>
+        <v>45838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5671,7 +5666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5708,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45162</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5723,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5772,7 +5767,7 @@
         <v>45349</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5822,14 +5817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44720</v>
+        <v>45162</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45755</v>
+        <v>45343</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5898,8 +5893,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>10.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45532</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>45320</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44923</v>
+        <v>45700</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45434</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45334</v>
+        <v>45318</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5028-2024</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45329</v>
+        <v>45318</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6240,13 +6240,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6290,7 +6285,7 @@
         <v>44417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6340,14 +6335,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45330</v>
+        <v>45628</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6359,13 +6354,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>18.4</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6392,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45089</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6412,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6459,14 +6449,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45426</v>
+        <v>44922</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45399</v>
+        <v>45875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6541,7 +6531,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45755</v>
+        <v>45875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45092</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6654,8 +6644,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6692,14 +6687,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45318</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6712,7 +6707,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6744,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45162</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6764,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45628</v>
+        <v>46007</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6825,8 +6820,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45628</v>
+        <v>46035</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 20090-2024</t>
+          <t>A 3401-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45434</v>
+        <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,17 +1039,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1073,31 +1073,31 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Hasselmus</t>
+          <t>Borsttåg</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
         <v/>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
         <v>45343</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3401-2024</t>
+          <t>A 20090-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45318</v>
+        <v>45434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1248,45 +1248,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Borsttåg</t>
+          <t>Hasselmus</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 3401-2024 artfynd.xlsx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 20090-2024 artfynd.xlsx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 3401-2024 karta.png", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 20090-2024 karta.png", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 3401-2024 FSC-klagomål.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 20090-2024 FSC-klagomål.docx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 3401-2024 FSC-klagomål mail.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 20090-2024 FSC-klagomål mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 3401-2024 tillsynsbegäran.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 20090-2024 tillsynsbegäran.docx", "A 20090-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 3401-2024 tillsynsbegäran mail.docx", "A 3401-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 20090-2024 tillsynsbegäran mail.docx", "A 20090-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2644-2026</t>
+          <t>A 45802-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46037.62291666667</v>
+        <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1333,119 +1333,119 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Hartsticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 2644-2026</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46037.62291666667</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIMRISHAMN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Flikbålmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 2644-2026 artfynd.xlsx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 2644-2026 karta.png", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 2644-2026 FSC-klagomål.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 2644-2026 FSC-klagomål mail.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 2644-2026 tillsynsbegäran.docx", "A 2644-2026")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 2644-2026 tillsynsbegäran mail.docx", "A 2644-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 45802-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SIMRISHAMN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Hartsticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/artfynd/A 45802-2022 artfynd.xlsx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/kartor/A 45802-2022 karta.png", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomål/A 45802-2022 FSC-klagomål.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/klagomålsmail/A 45802-2022 FSC-klagomål mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsyn/A 45802-2022 tillsynsbegäran.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1291/tillsynsmail/A 45802-2022 tillsynsbegäran mail.docx", "A 45802-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1891,14 +1891,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 7072-2024</t>
+          <t>A 17110-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45343</v>
+        <v>45755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53978-2022</t>
+          <t>A 4193-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44876</v>
+        <v>45324</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,8 +1967,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2005,14 +2010,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 20096-2024</t>
+          <t>A 40584-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45434</v>
+        <v>45555.74299768519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2062,14 +2067,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3604-2024</t>
+          <t>A 5224-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45320</v>
+        <v>45330</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,8 +2086,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>18.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2119,14 +2129,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2554-2023</t>
+          <t>A 8721-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44943.67172453704</v>
+        <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2139,7 +2149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2176,14 +2186,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43851-2024</t>
+          <t>A 30911-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45572.35173611111</v>
+        <v>45498.5925</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2195,8 +2205,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2233,14 +2248,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42016-2022</t>
+          <t>A 25475-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44827</v>
+        <v>45089</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2253,7 +2268,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2290,14 +2305,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 14994-2022</t>
+          <t>A 7072-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44657.53449074074</v>
+        <v>45343</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2309,13 +2324,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2352,14 +2362,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18856-2024</t>
+          <t>A 41157-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45426</v>
+        <v>45898.52972222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2371,13 +2381,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2414,14 +2419,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 27426-2024</t>
+          <t>A 30775-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45474.39143518519</v>
+        <v>45831.6150462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2439,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2471,14 +2476,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45946-2022</t>
+          <t>A 14994-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44845</v>
+        <v>44657.53449074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,8 +2495,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2528,14 +2538,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7584-2024</t>
+          <t>A 18856-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45348</v>
+        <v>45426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,8 +2557,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2585,14 +2600,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 17110-2025</t>
+          <t>A 32488-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45755</v>
+        <v>45838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2620,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2642,14 +2657,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35692-2024</t>
+          <t>A 3392-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45532</v>
+        <v>45318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2677,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2699,14 +2714,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3392-2024</t>
+          <t>A 62413-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45318</v>
+        <v>44923</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2734,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2756,14 +2771,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62413-2022</t>
+          <t>A 6830-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44923</v>
+        <v>45700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2791,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2813,14 +2828,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3402-2024</t>
+          <t>A 63456-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45318</v>
+        <v>45273</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2870,14 +2885,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 4193-2024</t>
+          <t>A 37189-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45324</v>
+        <v>45875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,13 +2904,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2932,14 +2942,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42231-2023</t>
+          <t>A 37052-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45180.31387731482</v>
+        <v>45875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2952,7 +2962,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2989,14 +2999,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63456-2023</t>
+          <t>A 14000-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45273</v>
+        <v>45740.26850694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3046,14 +3056,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19137-2025</t>
+          <t>A 18682-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45769</v>
+        <v>45043.60021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3066,7 +3076,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3103,14 +3113,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19141-2025</t>
+          <t>A 49303-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45769</v>
+        <v>45938.55403935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3122,8 +3132,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3160,14 +3175,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5224-2024</t>
+          <t>A 3367-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45330</v>
+        <v>45317</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3179,13 +3194,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>18.4</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3222,14 +3232,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 40584-2024</t>
+          <t>A 28269-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45555.74299768519</v>
+        <v>45818</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3242,7 +3252,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3279,14 +3289,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14103-2024</t>
+          <t>A 38846-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45392</v>
+        <v>45547.60444444444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3299,7 +3309,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3336,14 +3346,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 22194-2023</t>
+          <t>A 19435-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45069</v>
+        <v>45429</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3355,13 +3365,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>11.4</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3398,14 +3403,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8721-2023</t>
+          <t>A 14104-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44978</v>
+        <v>45392.61707175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3418,7 +3423,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3455,14 +3460,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30911-2024</t>
+          <t>A 14106-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45498.5925</v>
+        <v>45392</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3474,13 +3479,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19439-2024</t>
+          <t>A 6006-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45429</v>
+        <v>45336</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25475-2023</t>
+          <t>A 3393-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45089</v>
+        <v>45318</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16258-2024</t>
+          <t>A 3395-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45407</v>
+        <v>45318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3688,14 +3688,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 50138-2024</t>
+          <t>A 3398-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45600.44368055555</v>
+        <v>45318</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14000-2025</t>
+          <t>A 55504-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45740.26850694444</v>
+        <v>45971.59123842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18682-2023</t>
+          <t>A 7584-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45043.60021990741</v>
+        <v>45348</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39238-2023</t>
+          <t>A 35692-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45162</v>
+        <v>45532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42374-2023</t>
+          <t>A 3402-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45180.5609375</v>
+        <v>45318</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3973,14 +3973,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3367-2024</t>
+          <t>A 19439-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45317</v>
+        <v>45429</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50134-2024</t>
+          <t>A 39238-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45600.44069444444</v>
+        <v>45162</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 20950-2023</t>
+          <t>A 42374-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45061</v>
+        <v>45180.5609375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4144,14 +4144,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43724-2024</t>
+          <t>A 50134-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45569.63178240741</v>
+        <v>45600.44069444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4201,14 +4201,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30667-2023</t>
+          <t>A 20950-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45112</v>
+        <v>45061</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4220,13 +4220,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4263,14 +4258,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5488-2024</t>
+          <t>A 43724-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45334</v>
+        <v>45569.63178240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4283,7 +4278,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4320,14 +4315,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39015-2023</t>
+          <t>A 30667-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45162</v>
+        <v>45112</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4339,8 +4334,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4377,14 +4377,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38846-2024</t>
+          <t>A 60059-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45547.60444444444</v>
+        <v>45993.65428240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4396,8 +4396,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>7.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4434,14 +4439,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19435-2024</t>
+          <t>A 5488-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45429</v>
+        <v>45334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4454,7 +4459,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4491,14 +4496,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14104-2024</t>
+          <t>A 39015-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45392.61707175926</v>
+        <v>45162</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4511,7 +4516,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4548,14 +4553,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14106-2024</t>
+          <t>A 26471-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45392</v>
+        <v>45092</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4568,7 +4573,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4605,14 +4610,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47874-2023</t>
+          <t>A 56764-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45204</v>
+        <v>45628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4624,13 +4629,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4667,14 +4667,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26471-2023</t>
+          <t>A 17102-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45092</v>
+        <v>45755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4724,14 +4724,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56764-2024</t>
+          <t>A 62316-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45628</v>
+        <v>46006.69094907407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4781,14 +4781,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23052-2025</t>
+          <t>A 62357-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45790.71023148148</v>
+        <v>46007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4800,8 +4800,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4838,14 +4843,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12000-2025</t>
+          <t>A 63464-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45728.61288194444</v>
+        <v>45273</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4857,13 +4862,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4900,14 +4900,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17102-2025</t>
+          <t>A 23287-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45755</v>
+        <v>44720</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4957,14 +4957,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41157-2025</t>
+          <t>A 3404-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45898.52972222222</v>
+        <v>45318</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5014,14 +5014,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6006-2024</t>
+          <t>A 15039-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45336</v>
+        <v>45399</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 3393-2024</t>
+          <t>A 14702-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45318</v>
+        <v>45397.50576388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5128,14 +5128,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3395-2024</t>
+          <t>A 7716-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45318</v>
+        <v>45349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5185,14 +5185,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3398-2024</t>
+          <t>A 39221-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45318</v>
+        <v>45162</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5242,14 +5242,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 63464-2023</t>
+          <t>A 7083-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45273</v>
+        <v>45343</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5261,8 +5261,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>10.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5299,14 +5304,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23287-2022</t>
+          <t>A 3602-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44720</v>
+        <v>45320</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5319,7 +5324,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5356,14 +5361,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49303-2025</t>
+          <t>A 61876-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45938.55403935185</v>
+        <v>45652.38005787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5375,13 +5380,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5418,14 +5418,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30775-2025</t>
+          <t>A 3396-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45831.6150462963</v>
+        <v>45318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5475,14 +5475,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28269-2025</t>
+          <t>A 3405-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45818</v>
+        <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5532,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3404-2024</t>
+          <t>A 39834-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45318</v>
+        <v>44417</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5589,14 +5589,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15039-2024</t>
+          <t>A 56820-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45399</v>
+        <v>45628</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32488-2025</t>
+          <t>A 58985-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45838</v>
+        <v>44903.69670138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5703,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14702-2024</t>
+          <t>A 62149-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45397.50576388889</v>
+        <v>44922</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5722,8 +5722,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5760,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7716-2024</t>
+          <t>A 1910-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45349</v>
+        <v>46035</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5785,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5817,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39221-2023</t>
+          <t>A 19693-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45162</v>
+        <v>45771.25997685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5874,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7083-2024</t>
+          <t>A 53978-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45343</v>
+        <v>44876</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5893,13 +5898,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>10.6</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55504-2025</t>
+          <t>A 20096-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45971.59123842593</v>
+        <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3602-2024</t>
+          <t>A 3604-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>45320</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6830-2025</t>
+          <t>A 2554-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45700</v>
+        <v>44943.67172453704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61876-2024</t>
+          <t>A 43851-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45652.38005787037</v>
+        <v>45572.35173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3396-2024</t>
+          <t>A 42016-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45318</v>
+        <v>44827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3405-2024</t>
+          <t>A 27426-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45318</v>
+        <v>45474.39143518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39834-2021</t>
+          <t>A 45946-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44417</v>
+        <v>44845</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>14</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56820-2024</t>
+          <t>A 42231-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45628</v>
+        <v>45180.31387731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58985-2022</t>
+          <t>A 19137-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44903.69670138889</v>
+        <v>45769</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62149-2022</t>
+          <t>A 19141-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44922</v>
+        <v>45769</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6468,13 +6468,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6511,14 +6506,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 37189-2025</t>
+          <t>A 14103-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45875</v>
+        <v>45392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6531,7 +6526,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6568,14 +6563,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37052-2025</t>
+          <t>A 22194-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45875</v>
+        <v>45069</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6587,8 +6582,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60059-2025</t>
+          <t>A 16258-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45993.65428240741</v>
+        <v>45407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6644,13 +6644,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6687,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 19693-2025</t>
+          <t>A 50138-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45771.25997685185</v>
+        <v>45600.44368055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6707,7 +6702,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6744,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62316-2025</t>
+          <t>A 47874-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46006.69094907407</v>
+        <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6763,8 +6758,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62357-2025</t>
+          <t>A 23052-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46007</v>
+        <v>45790.71023148148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6820,13 +6820,8 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6863,14 +6858,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1910-2026</t>
+          <t>A 12000-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46035</v>
+        <v>45728.61288194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6882,8 +6877,13 @@
           <t>SIMRISHAMN</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>

--- a/Översikt SIMRISHAMN.xlsx
+++ b/Översikt SIMRISHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44687</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44564</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45474</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44412</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45318</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45343</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44844</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>46037.62291666667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45301</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44272.58836805556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>44344.37106481481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44733.58805555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44733.56212962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45329</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45324</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45555.74299768519</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>45330</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45498.5925</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45089</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45343</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45898.52972222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45831.6150462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44657.53449074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>45318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44923</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>45700</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45273</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>45875</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45740.26850694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45043.60021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45938.55403935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45317</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45818</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45547.60444444444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>45429</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>45392.61707175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45392</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45336</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>45318</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>45318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45318</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>45971.59123842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>45348</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>45532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45318</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45429</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45162</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45180.5609375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45600.44069444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45061</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45569.63178240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45112</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45993.65428240741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>45334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>45162</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>45092</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>45628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45755</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>46006.69094907407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>46007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>45273</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>44720</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45318</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>45399</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45397.50576388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45162</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45343</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>45320</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45652.38005787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45318</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45318</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44417</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45628</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44903.69670138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44922</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>46035</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45771.25997685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44876</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45320</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44943.67172453704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45572.35173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45474.39143518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44845</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45180.31387731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45769</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45769</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45392</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45069</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45600.44368055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45790.71023148148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45728.61288194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
